--- a/MajoliFE/Templates/vendor_invoices_majoli_template.xlsx
+++ b/MajoliFE/Templates/vendor_invoices_majoli_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJEKTI\MajoliFE\MajoliFE\MajoliFE\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{760ABF51-148D-4DF3-A4EA-A5DA77B73750}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C83D53-B5E1-4A5E-AD84-C5FD0F1AD88C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1320" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,9 +205,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -231,6 +228,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -239,9 +239,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -572,7 +569,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -600,14 +597,14 @@
       <c r="E1" s="17"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -634,9 +631,9 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -646,34 +643,34 @@
       <c r="J3" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="27.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
